--- a/5-Njësite-banesore/regjistri/Regjistri-i-pjeseve-te-nderteses.xlsx
+++ b/5-Njësite-banesore/regjistri/Regjistri-i-pjeseve-te-nderteses.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Ferizaj\Ferizaj\Ingjinierike\Nderimi-situacioni\Nderimi\5-Njësite-banesore\regjistri\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Ferizaj\Ferizaj\Ingjinierike\733-20-FER-AGIMI\5-Njësite-banesore\regjistri\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t>Nr</t>
   </si>
@@ -115,46 +115,37 @@
     <t>P</t>
   </si>
   <si>
-    <t>O-72217092-02262-1-____-____</t>
-  </si>
-  <si>
-    <t>Rr.Zenel Hajdini nr.20</t>
-  </si>
-  <si>
-    <t>Zenel Hajdini</t>
-  </si>
-  <si>
-    <t>Nderim (Nexhat) Sojeva</t>
-  </si>
-  <si>
-    <t>Rr. Zenel Hajdini</t>
-  </si>
-  <si>
     <t>Banim</t>
   </si>
   <si>
-    <t>O-72217092-02262-1-____-1-1-0</t>
-  </si>
-  <si>
-    <t>O-72217092-02262-1-____-1-2-0</t>
-  </si>
-  <si>
-    <t>O-72217092-02262-1-____-1-3-0</t>
-  </si>
-  <si>
     <t>Shtëpi</t>
   </si>
   <si>
-    <t>NK</t>
-  </si>
-  <si>
-    <t>O-72217092-02262-1-____-1-4-0</t>
-  </si>
-  <si>
-    <t>Shtëpi               O-72217092-02262-1-____-0</t>
-  </si>
-  <si>
-    <t>Afarizëm</t>
+    <t>HSASHANËT</t>
+  </si>
+  <si>
+    <t>Agim (Metë) Behluli</t>
+  </si>
+  <si>
+    <t>O-72217092-00733-20-____-____</t>
+  </si>
+  <si>
+    <t>Rr.Eqrem Qabej nr.13</t>
+  </si>
+  <si>
+    <t>Shtëpi              O-72217092-00733-20-____-0</t>
+  </si>
+  <si>
+    <t>O-72217092-00733-20-____-1-1-0</t>
+  </si>
+  <si>
+    <t>O-72217092-00733-20-____-1-2-0</t>
+  </si>
+  <si>
+    <t>Rr. Eqrem Qabej</t>
+  </si>
+  <si>
+    <t>HASHANËT</t>
   </si>
 </sst>
 </file>
@@ -588,18 +579,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -641,6 +620,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -960,10 +951,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:Q22"/>
+  <dimension ref="B1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="H9" sqref="H9:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -985,24 +976,24 @@
   <sheetData>
     <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
     </row>
     <row r="3" spans="2:17" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
@@ -1017,18 +1008,18 @@
       <c r="E3" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38" t="s">
+      <c r="G3" s="34"/>
+      <c r="H3" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="38"/>
-      <c r="J3" s="42" t="s">
+      <c r="I3" s="34"/>
+      <c r="J3" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="43"/>
+      <c r="K3" s="39"/>
       <c r="L3" s="23" t="s">
         <v>21</v>
       </c>
@@ -1059,20 +1050,20 @@
         <v>22</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="39">
-        <v>67.83</v>
-      </c>
-      <c r="G4" s="39"/>
-      <c r="H4" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="40"/>
-      <c r="J4" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="35">
+        <v>122.22</v>
+      </c>
+      <c r="G4" s="35"/>
+      <c r="H4" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="45"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="41"/>
       <c r="L4" s="21" t="s">
         <v>26</v>
       </c>
@@ -1081,7 +1072,7 @@
         <v>27</v>
       </c>
       <c r="O4" s="11">
-        <v>1231661367</v>
+        <v>2004513927</v>
       </c>
       <c r="P4" s="12" t="s">
         <v>22</v>
@@ -1091,62 +1082,62 @@
       </c>
     </row>
     <row r="5" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="35"/>
+      <c r="B6" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="31"/>
     </row>
     <row r="7" spans="2:17" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
       <c r="F7" s="14" t="s">
         <v>3</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="30" t="s">
+      <c r="H7" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="30"/>
+      <c r="I7" s="44"/>
       <c r="J7" s="14" t="s">
         <v>6</v>
       </c>
@@ -1176,38 +1167,38 @@
       <c r="B8" s="18">
         <v>1</v>
       </c>
-      <c r="C8" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
+      <c r="C8" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
       <c r="F8" s="1">
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="28">
-        <v>67.83</v>
-      </c>
-      <c r="I8" s="28"/>
+      <c r="H8" s="42">
+        <v>122.22</v>
+      </c>
+      <c r="I8" s="42"/>
       <c r="J8" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K8" s="1">
         <v>20</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O8" s="1">
-        <v>1231661367</v>
+        <v>2004513927</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>8</v>
@@ -1220,38 +1211,38 @@
       <c r="B9" s="18">
         <v>2</v>
       </c>
-      <c r="C9" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
+      <c r="C9" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
       <c r="F9" s="1">
         <v>1</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
       </c>
-      <c r="H9" s="28">
-        <v>76.650000000000006</v>
-      </c>
-      <c r="I9" s="28"/>
+      <c r="H9" s="42">
+        <v>100.46</v>
+      </c>
+      <c r="I9" s="42"/>
       <c r="J9" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K9" s="1">
         <v>20</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O9" s="1">
-        <v>1231661367</v>
+        <v>2004513927</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>8</v>
@@ -1260,111 +1251,29 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="18">
-        <v>3</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2">
-        <v>2</v>
-      </c>
-      <c r="H10" s="28">
-        <v>76.650000000000006</v>
-      </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="1">
-        <v>20</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O10" s="1">
-        <v>1231661367</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q10" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="18">
-        <v>4</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="28">
-        <v>40.96</v>
-      </c>
-      <c r="I11" s="28"/>
-      <c r="J11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="1">
-        <v>20</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O11" s="1">
-        <v>1231661367</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q11" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="24"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="27"/>
+    <row r="10" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="24"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="27"/>
+    </row>
+    <row r="11" spans="2:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L11" s="22"/>
+    </row>
+    <row r="12" spans="2:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L12" s="22"/>
     </row>
     <row r="13" spans="2:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L13" s="22"/>
@@ -1372,10 +1281,10 @@
     <row r="14" spans="2:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L14" s="22"/>
     </row>
-    <row r="15" spans="2:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="L15" s="22"/>
     </row>
-    <row r="16" spans="2:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="L16" s="22"/>
     </row>
     <row r="17" spans="12:12" x14ac:dyDescent="0.25">
@@ -1390,15 +1299,11 @@
     <row r="20" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L20" s="22"/>
     </row>
-    <row r="21" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L21" s="22"/>
-    </row>
-    <row r="22" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L22" s="22"/>
-    </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="C12:E12"/>
+  <mergeCells count="16">
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
     <mergeCell ref="B6:Q6"/>
     <mergeCell ref="B2:Q2"/>
     <mergeCell ref="F3:G3"/>
@@ -1408,16 +1313,10 @@
     <mergeCell ref="B5:Q5"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="J4:K4"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/5-Njësite-banesore/regjistri/Regjistri-i-pjeseve-te-nderteses.xlsx
+++ b/5-Njësite-banesore/regjistri/Regjistri-i-pjeseve-te-nderteses.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
   <si>
     <t>Nr</t>
   </si>
@@ -146,6 +146,12 @@
   </si>
   <si>
     <t>HASHANËT</t>
+  </si>
+  <si>
+    <t>Garazhë</t>
+  </si>
+  <si>
+    <t>O-72217092-00733-20-____-1-3-0</t>
   </si>
 </sst>
 </file>
@@ -286,7 +292,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -497,6 +503,32 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -506,7 +538,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -579,6 +611,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -621,16 +656,19 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -951,10 +989,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:Q20"/>
+  <dimension ref="B1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9:I9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,24 +1014,24 @@
   <sheetData>
     <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
     </row>
     <row r="3" spans="2:17" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
@@ -1008,18 +1046,18 @@
       <c r="E3" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34" t="s">
+      <c r="G3" s="35"/>
+      <c r="H3" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="34"/>
-      <c r="J3" s="38" t="s">
+      <c r="I3" s="35"/>
+      <c r="J3" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="39"/>
+      <c r="K3" s="40"/>
       <c r="L3" s="23" t="s">
         <v>21</v>
       </c>
@@ -1052,18 +1090,18 @@
       <c r="E4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="35">
+      <c r="F4" s="36">
         <v>122.22</v>
       </c>
-      <c r="G4" s="35"/>
-      <c r="H4" s="36" t="s">
+      <c r="G4" s="36"/>
+      <c r="H4" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="36"/>
-      <c r="J4" s="40" t="s">
+      <c r="I4" s="37"/>
+      <c r="J4" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="41"/>
+      <c r="K4" s="42"/>
       <c r="L4" s="21" t="s">
         <v>26</v>
       </c>
@@ -1082,42 +1120,42 @@
       </c>
     </row>
     <row r="5" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="32"/>
     </row>
     <row r="7" spans="2:17" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
@@ -1167,21 +1205,21 @@
       <c r="B8" s="18">
         <v>1</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
       <c r="F8" s="1">
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="42">
-        <v>122.22</v>
-      </c>
-      <c r="I8" s="42"/>
+      <c r="H8" s="46">
+        <v>27.26</v>
+      </c>
+      <c r="I8" s="47"/>
       <c r="J8" s="1" t="s">
         <v>33</v>
       </c>
@@ -1192,7 +1230,7 @@
         <v>34</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>27</v>
@@ -1211,21 +1249,21 @@
       <c r="B9" s="18">
         <v>2</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="2">
-        <v>1</v>
-      </c>
-      <c r="H9" s="42">
-        <v>100.46</v>
-      </c>
-      <c r="I9" s="42"/>
+      <c r="G9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="46">
+        <v>94.96</v>
+      </c>
+      <c r="I9" s="47"/>
       <c r="J9" s="1" t="s">
         <v>33</v>
       </c>
@@ -1251,26 +1289,67 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="24"/>
-      <c r="C10" s="28"/>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="18">
+        <v>3</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>36</v>
+      </c>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="27"/>
-    </row>
-    <row r="11" spans="2:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L11" s="22"/>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="45">
+        <v>100.46</v>
+      </c>
+      <c r="I10" s="45"/>
+      <c r="J10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="1">
+        <v>20</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" s="1">
+        <v>2004513927</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q10" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="24"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="27"/>
     </row>
     <row r="12" spans="2:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L12" s="22"/>
@@ -1281,7 +1360,7 @@
     <row r="14" spans="2:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L14" s="22"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L15" s="22"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
@@ -1299,11 +1378,16 @@
     <row r="20" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L20" s="22"/>
     </row>
+    <row r="21" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L21" s="22"/>
+    </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="18">
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H9:I9"/>
     <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
     <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
     <mergeCell ref="B6:Q6"/>
     <mergeCell ref="B2:Q2"/>
     <mergeCell ref="F3:G3"/>
@@ -1316,7 +1400,7 @@
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
